--- a/data/paper/paper_var.xlsx
+++ b/data/paper/paper_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE24969-8952-104D-9786-5336F67F3EEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="3980" windowWidth="25200" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wood" sheetId="1" r:id="rId1"/>
@@ -22,22 +23,28 @@
     <sheet name="Board" sheetId="9" r:id="rId8"/>
     <sheet name="Ref" sheetId="2" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,12 +73,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>Scenario</t>
   </si>
@@ -256,12 +263,42 @@
   </si>
   <si>
     <t>t unbleached pulp OUT / t wood chips IN</t>
+  </si>
+  <si>
+    <t>pulp ratio</t>
+  </si>
+  <si>
+    <t>filter cake ratio</t>
+  </si>
+  <si>
+    <t>effluent ratio</t>
+  </si>
+  <si>
+    <t>washing water demand</t>
+  </si>
+  <si>
+    <t>NaOH demand</t>
+  </si>
+  <si>
+    <t>H2O2 demand</t>
+  </si>
+  <si>
+    <t>Talc demand</t>
+  </si>
+  <si>
+    <t>NaCl3 demand</t>
+  </si>
+  <si>
+    <t>H2SO4 demand</t>
+  </si>
+  <si>
+    <t>Methanol demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -470,8 +507,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -748,21 +785,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -796,12 +833,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -818,7 +855,7 @@
         <v>0.2391772303276728</v>
       </c>
       <c r="E4">
-        <f>44/(4181/1000)*Ref!$B$18</f>
+        <f>44/4.181*Ref!$B$18</f>
         <v>3.7885673283903375E-2</v>
       </c>
     </row>
@@ -829,26 +866,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -912,12 +949,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -954,8 +991,8 @@
         <v>0.37417302798982188</v>
       </c>
       <c r="J4">
-        <f>(43+58+58+2)/7860/Ref!$B$18</f>
-        <v>5.68985015549901</v>
+        <f>(43+58+58+2)/7.86*Ref!$B$18</f>
+        <v>7.3740458015267171E-2</v>
       </c>
     </row>
   </sheetData>
@@ -964,26 +1001,165 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f>6930/7860</f>
+        <v>0.88167938931297707</v>
+      </c>
+      <c r="C4">
+        <f>19/6930</f>
+        <v>2.7417027417027417E-3</v>
+      </c>
+      <c r="D4">
+        <f>(8980+6499)/6930</f>
+        <v>2.2336219336219338</v>
+      </c>
+      <c r="E4">
+        <f>12923/6930</f>
+        <v>1.8647907647907649</v>
+      </c>
+      <c r="F4">
+        <f>19.8/6930</f>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="G4">
+        <f>7.4/6930</f>
+        <v>1.0678210678210678E-3</v>
+      </c>
+      <c r="H4">
+        <f>1/6930</f>
+        <v>1.443001443001443E-4</v>
+      </c>
+      <c r="I4">
+        <f>0.5/6930</f>
+        <v>7.215007215007215E-5</v>
+      </c>
+      <c r="J4">
+        <f>4/6930</f>
+        <v>5.772005772005772E-4</v>
+      </c>
+      <c r="K4">
+        <f>24.5/6930</f>
+        <v>3.5353535353535356E-3</v>
+      </c>
+      <c r="L4">
+        <f>15/6930</f>
+        <v>2.1645021645021645E-3</v>
+      </c>
+      <c r="M4">
+        <f>2.5/6930</f>
+        <v>3.6075036075036075E-4</v>
+      </c>
+      <c r="N4">
+        <f>(77+2)/6.93*Ref!$B$18</f>
+        <v>4.1038961038961042E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -993,27 +1169,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1023,27 +1199,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1053,57 +1229,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1114,26 +1260,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1144,30 +1290,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -1176,7 +1322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1334,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1346,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1358,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1370,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1236,7 +1382,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1394,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +1407,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
@@ -1273,7 +1419,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1285,31 +1431,31 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
@@ -1318,7 +1464,7 @@
       </c>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +1475,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1485,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1494,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>22</v>
       </c>

--- a/data/paper/paper_var.xlsx
+++ b/data/paper/paper_var.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE24969-8952-104D-9786-5336F67F3EEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26260D49-72F4-314F-8BFB-20EEE6E74F79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3980" windowWidth="25200" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="980" windowWidth="25200" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wood" sheetId="1" r:id="rId1"/>
     <sheet name="Pulp" sheetId="3" r:id="rId2"/>
     <sheet name="Bleach" sheetId="4" r:id="rId3"/>
-    <sheet name="Dry" sheetId="5" r:id="rId4"/>
-    <sheet name="Multifuel" sheetId="6" r:id="rId5"/>
-    <sheet name="Liquor" sheetId="7" r:id="rId6"/>
-    <sheet name="Caustic" sheetId="8" r:id="rId7"/>
-    <sheet name="Board" sheetId="9" r:id="rId8"/>
-    <sheet name="Ref" sheetId="2" r:id="rId9"/>
+    <sheet name="Multifuel" sheetId="6" r:id="rId4"/>
+    <sheet name="Liquor" sheetId="7" r:id="rId5"/>
+    <sheet name="Caustic" sheetId="8" r:id="rId6"/>
+    <sheet name="Ref" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,6 +76,92 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{59980107-992E-3A49-9263-132451F388A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>diff between air out and air in</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{51B0FF38-69D5-BF46-BB57-C8AD6CC84B4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>see pp100-102 of report</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
     <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
@@ -116,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>Scenario</t>
   </si>
@@ -274,9 +358,6 @@
     <t>effluent ratio</t>
   </si>
   <si>
-    <t>washing water demand</t>
-  </si>
-  <si>
     <t>NaOH demand</t>
   </si>
   <si>
@@ -293,16 +374,125 @@
   </si>
   <si>
     <t>Methanol demand</t>
+  </si>
+  <si>
+    <t>t market pulp / t unbleached pulp</t>
+  </si>
+  <si>
+    <t>t / t market pulp</t>
+  </si>
+  <si>
+    <t>GJ / t market pulp</t>
+  </si>
+  <si>
+    <t>vapor ratio</t>
+  </si>
+  <si>
+    <t>t H2O in exhaust / t market pulp</t>
+  </si>
+  <si>
+    <t>primary fuel type</t>
+  </si>
+  <si>
+    <t>secondary fuel type</t>
+  </si>
+  <si>
+    <t>secondary fuel demand</t>
+  </si>
+  <si>
+    <t>t second fuel / t primary fuel</t>
+  </si>
+  <si>
+    <t>wet hog fuel</t>
+  </si>
+  <si>
+    <t>wet biosludge</t>
+  </si>
+  <si>
+    <t>GJ / t primary fuel</t>
+  </si>
+  <si>
+    <t>liquor solids ratio</t>
+  </si>
+  <si>
+    <t>tall oil ratio</t>
+  </si>
+  <si>
+    <t>t strong black liquor solids / t weak black liquor in</t>
+  </si>
+  <si>
+    <t>fuel name for name of black liquor sloids</t>
+  </si>
+  <si>
+    <t>t / t weak black liquor in</t>
+  </si>
+  <si>
+    <t>t brine/ t weak black liquor in</t>
+  </si>
+  <si>
+    <t>dry black liquor</t>
+  </si>
+  <si>
+    <t>GJ / t weak black liquor in</t>
+  </si>
+  <si>
+    <t>fueltype</t>
+  </si>
+  <si>
+    <t>condensate ratio</t>
+  </si>
+  <si>
+    <t>smelt ratio</t>
+  </si>
+  <si>
+    <t>t smelt / t weak black liquor</t>
+  </si>
+  <si>
+    <t>white liquor ratio</t>
+  </si>
+  <si>
+    <t>CaO demand</t>
+  </si>
+  <si>
+    <t>fuel energy demand</t>
+  </si>
+  <si>
+    <t>biofuel cofire ratio</t>
+  </si>
+  <si>
+    <t>biofuel type</t>
+  </si>
+  <si>
+    <t>GJ / t white liquor</t>
+  </si>
+  <si>
+    <t>dry wood chips (EU no swiss)</t>
+  </si>
+  <si>
+    <t>t / t white liquor</t>
+  </si>
+  <si>
+    <t>t / t smelt</t>
+  </si>
+  <si>
+    <t>HFO - IEAGHG</t>
+  </si>
+  <si>
+    <t>Calcination CO2</t>
+  </si>
+  <si>
+    <t>biogenic - from smelt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -479,7 +669,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -504,6 +694,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,7 +1061,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,29 +1192,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,131 +1230,232 @@
         <v>51</v>
       </c>
       <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4">
-        <f>6930/7860</f>
-        <v>0.88167938931297707</v>
+        <f>1000/7860</f>
+        <v>0.1272264631043257</v>
       </c>
       <c r="C4">
-        <f>19/6930</f>
-        <v>2.7417027417027417E-3</v>
+        <f>19/1000</f>
+        <v>1.9E-2</v>
       </c>
       <c r="D4">
-        <f>(8980+6499)/6930</f>
-        <v>2.2336219336219338</v>
+        <f>(8980+6499)/1000</f>
+        <v>15.478999999999999</v>
       </c>
       <c r="E4">
-        <f>12923/6930</f>
-        <v>1.8647907647907649</v>
+        <f>(6576-5776)/1000</f>
+        <v>0.8</v>
       </c>
       <c r="F4">
-        <f>19.8/6930</f>
-        <v>2.8571428571428571E-3</v>
+        <f>6.9/1000</f>
+        <v>6.9000000000000008E-3</v>
       </c>
       <c r="G4">
-        <f>7.4/6930</f>
-        <v>1.0678210678210678E-3</v>
+        <f>9000/1000</f>
+        <v>9</v>
       </c>
       <c r="H4">
-        <f>1/6930</f>
-        <v>1.443001443001443E-4</v>
+        <f>19.8/1000</f>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="I4">
-        <f>0.5/6930</f>
-        <v>7.215007215007215E-5</v>
+        <f>7.4/1000</f>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="J4">
-        <f>4/6930</f>
-        <v>5.772005772005772E-4</v>
+        <f>1/1000</f>
+        <v>1E-3</v>
       </c>
       <c r="K4">
-        <f>24.5/6930</f>
-        <v>3.5353535353535356E-3</v>
+        <f>0.5/1000</f>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="L4">
-        <f>15/6930</f>
-        <v>2.1645021645021645E-3</v>
+        <f>4/1000</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="M4">
-        <f>2.5/6930</f>
-        <v>3.6075036075036075E-4</v>
+        <f>24.5/1000</f>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="N4">
-        <f>(77+2)/6.93*Ref!$B$18</f>
-        <v>4.1038961038961042E-2</v>
+        <f>15/1000</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O4">
+        <f>2.5/1000</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P4">
+        <f>(77+2+116)/1*Ref!$B$18</f>
+        <v>0.70199999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <f>25/481</f>
+        <v>5.1975051975051978E-2</v>
+      </c>
+      <c r="E4">
+        <f>29/0.481*Ref!$B$18</f>
+        <v>0.21704781704781703</v>
       </c>
     </row>
   </sheetData>
@@ -1170,28 +1464,115 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f>(2268/9662)</f>
+        <v>0.23473400952183812</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4">
+        <f>39/9662</f>
+        <v>4.0364313806665287E-3</v>
+      </c>
+      <c r="E4">
+        <f>29/9662</f>
+        <v>3.0014489753674187E-3</v>
+      </c>
+      <c r="F4">
+        <f>(2941+3802)/9662</f>
+        <v>0.69788863589318983</v>
+      </c>
+      <c r="G4">
+        <f>729/9662</f>
+        <v>7.545021734630511E-2</v>
+      </c>
+      <c r="H4">
+        <f>5/9662</f>
+        <v>5.1749120264955493E-4</v>
+      </c>
+      <c r="I4" s="22">
+        <f>(29+58)/9.662*Ref!$B$18</f>
+        <v>3.2415648933968123E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1200,101 +1581,135 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f>4041/729</f>
+        <v>5.5432098765432096</v>
+      </c>
+      <c r="C4">
+        <f>4.2/4041</f>
+        <v>1.0393466963622866E-3</v>
+      </c>
+      <c r="D4">
+        <f>17.4/4041</f>
+        <v>4.305864884929473E-3</v>
+      </c>
+      <c r="E4">
+        <f>1.44/4.041</f>
+        <v>0.35634743875278391</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4">
+        <f>3802/4041</f>
+        <v>0.94085622370700317</v>
+      </c>
+      <c r="J4">
+        <f>(274*0.6)/4041</f>
+        <v>4.0682999257609501E-2</v>
+      </c>
+      <c r="K4">
+        <f>55/4.041*Ref!B$18</f>
+        <v>4.8997772828507785E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/paper/paper_var.xlsx
+++ b/data/paper/paper_var.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26260D49-72F4-314F-8BFB-20EEE6E74F79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="980" windowWidth="25200" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="975" windowWidth="25200" windowHeight="13140" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Wood" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Caustic" sheetId="8" r:id="rId6"/>
     <sheet name="Ref" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,12 +70,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{59980107-992E-3A49-9263-132451F388A0}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,12 +113,78 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{51B0FF38-69D5-BF46-BB57-C8AD6CC84B4D}">
+    <comment ref="J4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>see pp100-102 of report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>see pp100-102 of report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,12 +222,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>Scenario</t>
   </si>
@@ -482,17 +547,23 @@
   </si>
   <si>
     <t>biogenic - from smelt</t>
+  </si>
+  <si>
+    <t>PLP-0B</t>
+  </si>
+  <si>
+    <t>PLP-HB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -669,7 +740,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -694,12 +765,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -976,21 +1048,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1024,12 +1096,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1046,6 +1118,48 @@
         <v>0.2391772303276728</v>
       </c>
       <c r="E4">
+        <f>44/4.181*Ref!$B$18</f>
+        <v>3.7885673283903375E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B6" si="0">4181/4698</f>
+        <v>0.88995317156236697</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="1">481/(481+36)</f>
+        <v>0.93036750483558994</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="2">1000/4181</f>
+        <v>0.2391772303276728</v>
+      </c>
+      <c r="E5">
+        <f>44/4.181*Ref!$B$18</f>
+        <v>3.7885673283903375E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.88995317156236697</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.93036750483558994</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0.2391772303276728</v>
+      </c>
+      <c r="E6">
         <f>44/4.181*Ref!$B$18</f>
         <v>3.7885673283903375E-2</v>
       </c>
@@ -1057,26 +1171,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1140,12 +1254,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1182,6 +1296,88 @@
         <v>0.37417302798982188</v>
       </c>
       <c r="J4">
+        <f>(43+58+58+2)/7.86*Ref!$B$18</f>
+        <v>7.3740458015267171E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B6" si="0">7860/4181</f>
+        <v>1.8799330303755082</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="1">9662/4181</f>
+        <v>2.3109303994259744</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="2">9/4181</f>
+        <v>2.1525950729490554E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="3">3/7860</f>
+        <v>3.816793893129771E-4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F6" si="4">24/7860</f>
+        <v>3.0534351145038168E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G6" si="5">4058/7860</f>
+        <v>0.51628498727735372</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="6">6344/7860</f>
+        <v>0.80712468193384224</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I6" si="7">2941/7860</f>
+        <v>0.37417302798982188</v>
+      </c>
+      <c r="J5">
+        <f>(43+58+58+2)/7.86*Ref!$B$18</f>
+        <v>7.3740458015267171E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.8799330303755082</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.3109303994259744</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>2.1525950729490554E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>3.816793893129771E-4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>3.0534351145038168E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>0.51628498727735372</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>0.80712468193384224</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="7"/>
+        <v>0.37417302798982188</v>
+      </c>
+      <c r="J6">
         <f>(43+58+58+2)/7.86*Ref!$B$18</f>
         <v>7.3740458015267171E-2</v>
       </c>
@@ -1192,31 +1388,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1316,12 +1512,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1382,6 +1578,136 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="P4">
+        <f>(77+2+116)/1*Ref!$B$18</f>
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B6" si="0">1000/7860</f>
+        <v>0.1272264631043257</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="1">19/1000</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="2">(8980+6499)/1000</f>
+        <v>15.478999999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="3">(6576-5776)/1000</f>
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F6" si="4">6.9/1000</f>
+        <v>6.9000000000000008E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G6" si="5">9000/1000</f>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="6">19.8/1000</f>
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I6" si="7">7.4/1000</f>
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J6" si="8">1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K6" si="9">0.5/1000</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L6" si="10">4/1000</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M6" si="11">24.5/1000</f>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N6" si="12">15/1000</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O6" si="13">2.5/1000</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P5">
+        <f>(77+2+116)/1*Ref!$B$18</f>
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.1272264631043257</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>15.478999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>6.9000000000000008E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="7"/>
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="11"/>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="12"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="13"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P6">
         <f>(77+2+116)/1*Ref!$B$18</f>
         <v>0.70199999999999996</v>
       </c>
@@ -1393,20 +1719,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1434,12 +1760,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1454,6 +1780,44 @@
         <v>5.1975051975051978E-2</v>
       </c>
       <c r="E4">
+        <f>29/0.481*Ref!$B$18</f>
+        <v>0.21704781704781703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="0">25/481</f>
+        <v>5.1975051975051978E-2</v>
+      </c>
+      <c r="E5">
+        <f>29/0.481*Ref!$B$18</f>
+        <v>0.21704781704781703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5.1975051975051978E-2</v>
+      </c>
+      <c r="E6">
         <f>29/0.481*Ref!$B$18</f>
         <v>0.21704781704781703</v>
       </c>
@@ -1464,19 +1828,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1534,12 +1898,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1571,6 +1935,78 @@
         <v>5.1749120264955493E-4</v>
       </c>
       <c r="I4" s="22">
+        <f>(29+58)/9.662*Ref!$B$18</f>
+        <v>3.2415648933968123E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B6" si="0">(2268/9662)</f>
+        <v>0.23473400952183812</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">39/9662</f>
+        <v>4.0364313806665287E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">29/9662</f>
+        <v>3.0014489753674187E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F6" si="3">(2941+3802)/9662</f>
+        <v>0.69788863589318983</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G6" si="4">729/9662</f>
+        <v>7.545021734630511E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="5">5/9662</f>
+        <v>5.1749120264955493E-4</v>
+      </c>
+      <c r="I5" s="22">
+        <f>(29+58)/9.662*Ref!$B$18</f>
+        <v>3.2415648933968123E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.23473400952183812</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>4.0364313806665287E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>3.0014489753674187E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.69788863589318983</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>7.545021734630511E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>5.1749120264955493E-4</v>
+      </c>
+      <c r="I6" s="22">
         <f>(29+58)/9.662*Ref!$B$18</f>
         <v>3.2415648933968123E-2</v>
       </c>
@@ -1581,16 +2017,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +2061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +2084,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1656,7 +2092,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1694,6 +2130,90 @@
         <v>4.0682999257609501E-2</v>
       </c>
       <c r="K4">
+        <f>55/4.041*Ref!B$18</f>
+        <v>4.8997772828507785E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B6" si="0">4041/729</f>
+        <v>5.5432098765432096</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="1">4.2/4041</f>
+        <v>1.0393466963622866E-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="2">17.4/4041</f>
+        <v>4.305864884929473E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="3">1.44/4.041</f>
+        <v>0.35634743875278391</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I6" si="4">3802/4041</f>
+        <v>0.94085622370700317</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J6" si="5">(274*0.6)/4041</f>
+        <v>4.0682999257609501E-2</v>
+      </c>
+      <c r="K5">
+        <f>55/4.041*Ref!B$18</f>
+        <v>4.8997772828507785E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5.5432098765432096</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1.0393466963622866E-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>4.305864884929473E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>0.35634743875278391</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>0.94085622370700317</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>4.0682999257609501E-2</v>
+      </c>
+      <c r="K6">
         <f>55/4.041*Ref!B$18</f>
         <v>4.8997772828507785E-2</v>
       </c>
@@ -1705,30 +2225,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -1737,7 +2257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1749,7 +2269,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +2281,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1773,7 +2293,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +2305,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +2317,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1809,7 +2329,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1822,7 +2342,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
@@ -1834,7 +2354,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1846,31 +2366,31 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
@@ -1879,7 +2399,7 @@
       </c>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
@@ -1890,7 +2410,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
@@ -1900,7 +2420,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
@@ -1909,7 +2429,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>22</v>
       </c>

--- a/data/paper/paper_var.xlsx
+++ b/data/paper/paper_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C736E6-7C8A-4F47-BD5D-E7B4BB236DB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="975" windowWidth="25200" windowHeight="13140" activeTab="5"/>
+    <workbookView xWindow="2160" yWindow="980" windowWidth="25200" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wood" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Caustic" sheetId="8" r:id="rId6"/>
     <sheet name="Ref" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,12 +71,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -113,12 +114,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -222,12 +223,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -468,12 +469,6 @@
     <t>t second fuel / t primary fuel</t>
   </si>
   <si>
-    <t>wet hog fuel</t>
-  </si>
-  <si>
-    <t>wet biosludge</t>
-  </si>
-  <si>
     <t>GJ / t primary fuel</t>
   </si>
   <si>
@@ -495,9 +490,6 @@
     <t>t brine/ t weak black liquor in</t>
   </si>
   <si>
-    <t>dry black liquor</t>
-  </si>
-  <si>
     <t>GJ / t weak black liquor in</t>
   </si>
   <si>
@@ -553,12 +545,21 @@
   </si>
   <si>
     <t>PLP-HB</t>
+  </si>
+  <si>
+    <t>strong black liquor</t>
+  </si>
+  <si>
+    <t>hog fuel</t>
+  </si>
+  <si>
+    <t>biosludge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -770,8 +771,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1048,21 +1049,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1096,12 +1097,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1122,9 +1123,9 @@
         <v>3.7885673283903375E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="0">4181/4698</f>
@@ -1143,9 +1144,9 @@
         <v>3.7885673283903375E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -1171,26 +1172,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1254,12 +1255,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1300,9 +1301,9 @@
         <v>7.3740458015267171E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="0">7860/4181</f>
@@ -1341,9 +1342,9 @@
         <v>7.3740458015267171E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -1388,31 +1389,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1512,12 +1513,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1582,9 +1583,9 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="0">1000/7860</f>
@@ -1647,9 +1648,9 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -1719,20 +1720,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1757,23 +1758,23 @@
         <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <f>25/481</f>
@@ -1784,15 +1785,15 @@
         <v>0.21704781704781703</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="0">25/481</f>
@@ -1803,15 +1804,15 @@
         <v>0.21704781704781703</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -1828,39 +1829,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
         <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
         <v>56</v>
@@ -1869,41 +1873,41 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>0.23473400952183812</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <f>39/9662</f>
@@ -1939,16 +1943,16 @@
         <v>3.2415648933968123E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="0">(2268/9662)</f>
         <v>0.23473400952183812</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="1">39/9662</f>
@@ -1975,16 +1979,16 @@
         <v>3.2415648933968123E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>0.23473400952183812</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
@@ -2017,82 +2021,82 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
         <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2113,13 +2117,13 @@
         <v>0.35634743875278391</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <f>3802/4041</f>
@@ -2134,9 +2138,9 @@
         <v>4.8997772828507785E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="0">4041/729</f>
@@ -2155,13 +2159,13 @@
         <v>0.35634743875278391</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I6" si="4">3802/4041</f>
@@ -2176,9 +2180,9 @@
         <v>4.8997772828507785E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -2197,13 +2201,13 @@
         <v>0.35634743875278391</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
@@ -2225,30 +2229,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -2257,7 +2261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2281,7 +2285,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -2329,7 +2333,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -2342,7 +2346,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2366,31 +2370,31 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
@@ -2399,7 +2403,7 @@
       </c>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
@@ -2410,7 +2414,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
@@ -2420,7 +2424,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>22</v>
       </c>

--- a/data/paper/paper_var.xlsx
+++ b/data/paper/paper_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C736E6-7C8A-4F47-BD5D-E7B4BB236DB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FCAD06-F22F-DC44-A00C-4F31C1B0ACBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="980" windowWidth="25200" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="980" windowWidth="25200" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wood" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samantha Eleanor Tanzer - TBM:</t>
         </r>
@@ -59,7 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 original unit: kwh/t air dried pulp</t>
@@ -532,9 +532,6 @@
     <t>t / t smelt</t>
   </si>
   <si>
-    <t>HFO - IEAGHG</t>
-  </si>
-  <si>
     <t>Calcination CO2</t>
   </si>
   <si>
@@ -554,6 +551,9 @@
   </si>
   <si>
     <t>biosludge</t>
+  </si>
+  <si>
+    <t>HFO - IPCC</t>
   </si>
 </sst>
 </file>
@@ -629,14 +629,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1125,7 +1125,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="0">4181/4698</f>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="0">7860/4181</f>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="0">1000/7860</f>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -1723,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1771,10 +1771,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
         <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
       </c>
       <c r="D4">
         <f>25/481</f>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
         <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="0">25/481</f>
@@ -1806,13 +1806,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
         <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -1916,7 +1916,7 @@
         <v>0.23473400952183812</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <f>39/9662</f>
@@ -1945,14 +1945,14 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="0">(2268/9662)</f>
         <v>0.23473400952183812</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="1">39/9662</f>
@@ -1981,14 +1981,14 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>0.23473400952183812</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2059,7 +2059,7 @@
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>27</v>
@@ -2093,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2117,7 +2117,7 @@
         <v>0.35634743875278391</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="0">4041/729</f>
@@ -2159,7 +2159,7 @@
         <v>0.35634743875278391</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -2201,7 +2201,7 @@
         <v>0.35634743875278391</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G6">
         <v>1</v>
